--- a/static/pdf/27Q_Excel_Template.xlsx
+++ b/static/pdf/27Q_Excel_Template.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neeraj Project\TDS excel template\FINAL TEMPLATES FOR SOFTWARE\Blank for Software-220925\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35CC393-EA1B-4D55-AC2D-2E9F67BAEF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8rtzWIgeZo4sOn7K1xsp9QIrXd+pjFcYL+LH/xa2KF2dsJUkf2Rd1CstGWjs6Ojn1emD4s9dNuKi3b7JaIkbuA==" workbookSaltValue="aFY5nTptpoFbrSax3RPd7w==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FFDF08-0B7E-4892-9CC7-BD72613D1272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="7g/husnDN2FX83frQERr2TG8t50457Bq7wnpMbYxYWt9XGcmdkO/g60D/bFaYRUj/L38NR+nvHUgGQIcqGJ4HA==" workbookSaltValue="gNrZl5zxZpRlwtvLwh8pOA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company Details" sheetId="8" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Deductee Details'!$A$1:$AH$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Validations Challan'!$B$2:$H$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Validations Deductee'!$B$2:$H$56</definedName>
+    <definedName name="Running_Serial_No___701">'Challan Details'!$A$2:$A$1048576</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,45 +50,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="744">
   <si>
     <t>Light yellow Color in header, should be Mandatory</t>
   </si>
@@ -511,12 +475,6 @@
   </si>
   <si>
     <t xml:space="preserve">Annexure 6 </t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>In case of no deduction is as per the provisions of sub-section (2A) of section 194LBA</t>
@@ -3369,7 +3327,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3588,10 +3546,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -3637,10 +3591,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3661,64 +3611,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>13</v>
-    <v>3</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4020,7 +3912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A1048576" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
@@ -4045,23 +3937,23 @@
       <c r="C1" s="75"/>
       <c r="D1" s="76"/>
       <c r="E1" s="74" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>722</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>723</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>724</v>
       </c>
       <c r="D2"/>
       <c r="E2" s="77" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4095,17 +3987,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>85</v>
@@ -4114,15 +4006,15 @@
         <v>86</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="68" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C3" s="37">
         <v>16</v>
@@ -4131,10 +4023,10 @@
     </row>
     <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C4" s="37">
         <v>21</v>
@@ -4143,10 +4035,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="68" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C5" s="37">
         <v>27</v>
@@ -4155,10 +4047,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="68" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C6" s="37">
         <v>28</v>
@@ -4167,80 +4059,80 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="68" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C7" s="37">
         <v>31</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C8" s="37">
         <v>66</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="69" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C9" s="37">
         <v>67</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="68" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C10" s="37">
         <v>68</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="68" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C11" s="37">
         <v>69</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="68" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C12" s="37">
         <v>49</v>
@@ -4249,38 +4141,38 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="68" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C13" s="37">
         <v>52</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="68" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C14" s="37">
         <v>70</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="68" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" s="37">
         <v>99</v>
@@ -4306,7 +4198,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="38"/>
     </row>
@@ -4315,12 +4207,12 @@
         <v>85</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B3" s="40" t="s">
         <v>116</v>
@@ -4328,7 +4220,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>117</v>
@@ -4336,63 +4228,63 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B12" s="41">
         <v>10</v>
@@ -4400,7 +4292,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B13" s="41">
         <v>11</v>
@@ -4408,7 +4300,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B14" s="41">
         <v>12</v>
@@ -4416,7 +4308,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B15" s="41">
         <v>13</v>
@@ -4424,7 +4316,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B16" s="41">
         <v>14</v>
@@ -4432,7 +4324,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B17" s="41">
         <v>15</v>
@@ -4440,7 +4332,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B18" s="41">
         <v>16</v>
@@ -4448,7 +4340,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B19" s="41">
         <v>17</v>
@@ -4456,7 +4348,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B20" s="41">
         <v>18</v>
@@ -4464,7 +4356,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B21" s="41">
         <v>19</v>
@@ -4472,7 +4364,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B22" s="41">
         <v>20</v>
@@ -4480,7 +4372,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B23" s="41">
         <v>21</v>
@@ -4488,7 +4380,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B24" s="41">
         <v>22</v>
@@ -4496,7 +4388,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B25" s="41">
         <v>23</v>
@@ -4504,7 +4396,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B26" s="41">
         <v>24</v>
@@ -4512,7 +4404,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B27" s="41">
         <v>25</v>
@@ -4520,7 +4412,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B28" s="41">
         <v>26</v>
@@ -4528,7 +4420,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B29" s="41">
         <v>27</v>
@@ -4536,7 +4428,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B30" s="41">
         <v>28</v>
@@ -4544,7 +4436,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B31" s="41">
         <v>29</v>
@@ -4552,7 +4444,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B32" s="41">
         <v>30</v>
@@ -4560,7 +4452,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B33" s="41">
         <v>31</v>
@@ -4568,7 +4460,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B34" s="41">
         <v>32</v>
@@ -4576,7 +4468,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B35" s="41">
         <v>33</v>
@@ -4584,7 +4476,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B36" s="41">
         <v>34</v>
@@ -4592,7 +4484,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B37" s="41">
         <v>35</v>
@@ -4600,7 +4492,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B38" s="41">
         <v>36</v>
@@ -4608,7 +4500,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B39" s="41">
         <v>37</v>
@@ -4616,7 +4508,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B40" s="41">
         <v>38</v>
@@ -4624,7 +4516,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B41" s="41">
         <v>39</v>
@@ -4632,7 +4524,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B42" s="41">
         <v>40</v>
@@ -4640,7 +4532,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B43" s="41">
         <v>41</v>
@@ -4648,7 +4540,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B44" s="41">
         <v>42</v>
@@ -4656,7 +4548,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B45" s="41">
         <v>43</v>
@@ -4664,7 +4556,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B46" s="41">
         <v>44</v>
@@ -4672,7 +4564,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B47" s="41">
         <v>45</v>
@@ -4680,7 +4572,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="39" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B48" s="41">
         <v>46</v>
@@ -4688,7 +4580,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B49" s="41">
         <v>47</v>
@@ -4696,7 +4588,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B50" s="41">
         <v>48</v>
@@ -4704,7 +4596,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B51" s="41">
         <v>49</v>
@@ -4712,7 +4604,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B52" s="41">
         <v>50</v>
@@ -4720,7 +4612,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B53" s="41">
         <v>51</v>
@@ -4728,7 +4620,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B54" s="41">
         <v>52</v>
@@ -4736,7 +4628,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B55" s="41">
         <v>53</v>
@@ -4744,7 +4636,7 @@
     </row>
     <row r="56" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B56" s="41">
         <v>54</v>
@@ -4752,7 +4644,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B57" s="41">
         <v>55</v>
@@ -4760,7 +4652,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="39" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B58" s="41">
         <v>56</v>
@@ -4768,7 +4660,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="39" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B59" s="41">
         <v>57</v>
@@ -4776,7 +4668,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="39" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B60" s="41">
         <v>58</v>
@@ -4784,7 +4676,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="39" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B61" s="41">
         <v>59</v>
@@ -4792,7 +4684,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="39" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B62" s="41">
         <v>60</v>
@@ -4800,7 +4692,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="39" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B63" s="41">
         <v>61</v>
@@ -4808,7 +4700,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B64" s="41">
         <v>62</v>
@@ -4816,7 +4708,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B65" s="41">
         <v>63</v>
@@ -4824,7 +4716,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="39" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B66" s="41">
         <v>64</v>
@@ -4832,7 +4724,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B67" s="41">
         <v>65</v>
@@ -4840,7 +4732,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="39" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B68" s="41">
         <v>66</v>
@@ -4848,7 +4740,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="39" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B69" s="41">
         <v>67</v>
@@ -4856,7 +4748,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="39" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B70" s="41">
         <v>68</v>
@@ -4864,7 +4756,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="39" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B71" s="41">
         <v>69</v>
@@ -4872,7 +4764,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B72" s="41">
         <v>70</v>
@@ -4880,7 +4772,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B73" s="41">
         <v>71</v>
@@ -4888,7 +4780,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="39" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B74" s="41">
         <v>72</v>
@@ -4896,7 +4788,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B75" s="41">
         <v>73</v>
@@ -4904,7 +4796,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="39" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B76" s="41">
         <v>74</v>
@@ -4912,7 +4804,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B77" s="41">
         <v>75</v>
@@ -4920,7 +4812,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="39" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B78" s="41">
         <v>76</v>
@@ -4928,7 +4820,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B79" s="41">
         <v>77</v>
@@ -4936,7 +4828,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="39" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B80" s="41">
         <v>78</v>
@@ -4944,7 +4836,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B81" s="41">
         <v>79</v>
@@ -4952,7 +4844,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="39" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B82" s="41">
         <v>80</v>
@@ -4960,7 +4852,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="39" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B83" s="41">
         <v>81</v>
@@ -4968,7 +4860,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B84" s="41">
         <v>82</v>
@@ -4976,7 +4868,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B85" s="41">
         <v>83</v>
@@ -4984,7 +4876,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="39" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B86" s="41">
         <v>84</v>
@@ -4992,7 +4884,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="39" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B87" s="41">
         <v>85</v>
@@ -5000,7 +4892,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="39" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B88" s="41">
         <v>86</v>
@@ -5008,7 +4900,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="39" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B89" s="41">
         <v>87</v>
@@ -5016,7 +4908,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="39" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B90" s="41">
         <v>88</v>
@@ -5024,7 +4916,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="39" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B91" s="41">
         <v>89</v>
@@ -5032,7 +4924,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="39" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B92" s="41">
         <v>90</v>
@@ -5040,7 +4932,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B93" s="41">
         <v>91</v>
@@ -5048,7 +4940,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="39" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B94" s="41">
         <v>92</v>
@@ -5056,7 +4948,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="39" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B95" s="41">
         <v>93</v>
@@ -5064,7 +4956,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B96" s="41">
         <v>94</v>
@@ -5072,7 +4964,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B97" s="41">
         <v>95</v>
@@ -5080,7 +4972,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="39" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B98" s="41">
         <v>96</v>
@@ -5088,7 +4980,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="39" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B99" s="41">
         <v>97</v>
@@ -5096,7 +4988,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="39" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B100" s="41">
         <v>98</v>
@@ -5104,7 +4996,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="39" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B101" s="41">
         <v>100</v>
@@ -5112,7 +5004,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="39" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B102" s="41">
         <v>101</v>
@@ -5120,7 +5012,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B103" s="41">
         <v>102</v>
@@ -5128,7 +5020,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="39" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B104" s="41">
         <v>103</v>
@@ -5136,7 +5028,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="39" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B105" s="41">
         <v>104</v>
@@ -5144,7 +5036,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="39" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B106" s="41">
         <v>105</v>
@@ -5152,7 +5044,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="39" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B107" s="41">
         <v>106</v>
@@ -5160,7 +5052,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="39" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B108" s="41">
         <v>107</v>
@@ -5168,7 +5060,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="39" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B109" s="41">
         <v>108</v>
@@ -5176,7 +5068,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="39" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B110" s="41">
         <v>109</v>
@@ -5184,7 +5076,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="39" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B111" s="41">
         <v>110</v>
@@ -5192,7 +5084,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="39" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B112" s="41">
         <v>111</v>
@@ -5200,7 +5092,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="39" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B113" s="41">
         <v>112</v>
@@ -5208,7 +5100,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="39" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B114" s="41">
         <v>113</v>
@@ -5216,7 +5108,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B115" s="41">
         <v>114</v>
@@ -5224,7 +5116,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="39" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B116" s="41">
         <v>115</v>
@@ -5232,7 +5124,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="39" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B117" s="41">
         <v>116</v>
@@ -5240,7 +5132,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="39" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B118" s="41">
         <v>117</v>
@@ -5248,7 +5140,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="39" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B119" s="41">
         <v>118</v>
@@ -5256,7 +5148,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="39" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B120" s="41">
         <v>119</v>
@@ -5264,7 +5156,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="39" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B121" s="41">
         <v>120</v>
@@ -5272,7 +5164,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="39" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B122" s="41">
         <v>121</v>
@@ -5280,7 +5172,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="39" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B123" s="41">
         <v>122</v>
@@ -5288,7 +5180,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="39" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B124" s="41">
         <v>123</v>
@@ -5296,7 +5188,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="39" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B125" s="41">
         <v>124</v>
@@ -5304,7 +5196,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="39" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B126" s="41">
         <v>125</v>
@@ -5312,7 +5204,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="39" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B127" s="41">
         <v>126</v>
@@ -5320,7 +5212,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="39" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B128" s="41">
         <v>127</v>
@@ -5328,7 +5220,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="39" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B129" s="41">
         <v>128</v>
@@ -5336,7 +5228,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="39" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B130" s="41">
         <v>129</v>
@@ -5344,7 +5236,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="39" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B131" s="41">
         <v>130</v>
@@ -5352,7 +5244,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="39" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B132" s="41">
         <v>131</v>
@@ -5360,7 +5252,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="39" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B133" s="41">
         <v>132</v>
@@ -5368,7 +5260,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="39" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B134" s="41">
         <v>133</v>
@@ -5376,7 +5268,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="39" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B135" s="41">
         <v>134</v>
@@ -5384,7 +5276,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="39" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B136" s="41">
         <v>135</v>
@@ -5392,7 +5284,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="39" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B137" s="41">
         <v>136</v>
@@ -5400,7 +5292,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="39" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B138" s="41">
         <v>137</v>
@@ -5408,7 +5300,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="39" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B139" s="41">
         <v>138</v>
@@ -5416,7 +5308,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="39" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B140" s="41">
         <v>139</v>
@@ -5424,7 +5316,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="39" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B141" s="41">
         <v>140</v>
@@ -5432,7 +5324,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="39" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B142" s="41">
         <v>141</v>
@@ -5440,7 +5332,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="39" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B143" s="41">
         <v>142</v>
@@ -5448,7 +5340,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B144" s="41">
         <v>143</v>
@@ -5456,7 +5348,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B145" s="41">
         <v>144</v>
@@ -5464,7 +5356,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="39" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B146" s="41">
         <v>145</v>
@@ -5472,7 +5364,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="39" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B147" s="41">
         <v>146</v>
@@ -5480,7 +5372,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="39" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B148" s="41">
         <v>147</v>
@@ -5488,7 +5380,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="39" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B149" s="41">
         <v>148</v>
@@ -5496,7 +5388,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="39" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B150" s="41">
         <v>149</v>
@@ -5504,7 +5396,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="39" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B151" s="41">
         <v>150</v>
@@ -5512,7 +5404,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="39" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B152" s="41">
         <v>151</v>
@@ -5520,7 +5412,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="39" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B153" s="41">
         <v>152</v>
@@ -5528,7 +5420,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="39" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B154" s="41">
         <v>153</v>
@@ -5536,7 +5428,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="39" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B155" s="41">
         <v>154</v>
@@ -5544,7 +5436,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="39" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B156" s="41">
         <v>155</v>
@@ -5552,7 +5444,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="39" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B157" s="41">
         <v>156</v>
@@ -5560,7 +5452,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="39" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B158" s="41">
         <v>157</v>
@@ -5568,7 +5460,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="39" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B159" s="41">
         <v>158</v>
@@ -5576,7 +5468,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="39" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B160" s="41">
         <v>159</v>
@@ -5584,7 +5476,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="39" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B161" s="41">
         <v>160</v>
@@ -5592,7 +5484,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="39" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B162" s="41">
         <v>161</v>
@@ -5600,7 +5492,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="39" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B163" s="41">
         <v>162</v>
@@ -5608,7 +5500,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="39" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B164" s="41">
         <v>163</v>
@@ -5616,7 +5508,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="39" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B165" s="41">
         <v>164</v>
@@ -5624,7 +5516,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="39" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B166" s="41">
         <v>165</v>
@@ -5632,7 +5524,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="39" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B167" s="41">
         <v>166</v>
@@ -5640,7 +5532,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="39" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B168" s="41">
         <v>167</v>
@@ -5648,7 +5540,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="39" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B169" s="41">
         <v>168</v>
@@ -5656,7 +5548,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="39" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B170" s="41">
         <v>169</v>
@@ -5664,7 +5556,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="39" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B171" s="41">
         <v>170</v>
@@ -5672,7 +5564,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="39" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B172" s="41">
         <v>171</v>
@@ -5680,7 +5572,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="39" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B173" s="41">
         <v>172</v>
@@ -5688,7 +5580,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="39" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B174" s="41">
         <v>173</v>
@@ -5696,7 +5588,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="39" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B175" s="41">
         <v>174</v>
@@ -5704,7 +5596,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="39" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B176" s="41">
         <v>175</v>
@@ -5712,7 +5604,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="39" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B177" s="41">
         <v>176</v>
@@ -5720,7 +5612,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="39" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B178" s="41">
         <v>177</v>
@@ -5728,7 +5620,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="39" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B179" s="41">
         <v>178</v>
@@ -5736,7 +5628,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="39" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B180" s="41">
         <v>179</v>
@@ -5744,7 +5636,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="39" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B181" s="41">
         <v>180</v>
@@ -5752,7 +5644,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="39" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B182" s="41">
         <v>181</v>
@@ -5760,7 +5652,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="39" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B183" s="41">
         <v>182</v>
@@ -5768,7 +5660,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="39" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B184" s="41">
         <v>183</v>
@@ -5776,7 +5668,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="39" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B185" s="41">
         <v>184</v>
@@ -5784,7 +5676,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="39" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B186" s="41">
         <v>185</v>
@@ -5792,7 +5684,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="39" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B187" s="41">
         <v>186</v>
@@ -5800,7 +5692,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="39" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B188" s="41">
         <v>187</v>
@@ -5808,7 +5700,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="39" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B189" s="41">
         <v>188</v>
@@ -5816,7 +5708,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="39" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B190" s="41">
         <v>189</v>
@@ -5824,7 +5716,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="39" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B191" s="41">
         <v>190</v>
@@ -5832,7 +5724,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="39" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B192" s="41">
         <v>191</v>
@@ -5840,7 +5732,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="39" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B193" s="41">
         <v>192</v>
@@ -5848,7 +5740,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="39" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B194" s="41">
         <v>193</v>
@@ -5856,7 +5748,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="39" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B195" s="41">
         <v>194</v>
@@ -5864,7 +5756,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="39" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B196" s="41">
         <v>195</v>
@@ -5872,7 +5764,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="39" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B197" s="41">
         <v>196</v>
@@ -5880,7 +5772,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="39" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B198" s="41">
         <v>197</v>
@@ -5888,7 +5780,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="39" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B199" s="41">
         <v>198</v>
@@ -5896,7 +5788,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="39" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B200" s="41">
         <v>199</v>
@@ -5904,7 +5796,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="39" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B201" s="41">
         <v>200</v>
@@ -5912,7 +5804,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="39" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B202" s="41">
         <v>201</v>
@@ -5920,7 +5812,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B203" s="41">
         <v>202</v>
@@ -5928,7 +5820,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="39" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B204" s="41">
         <v>203</v>
@@ -5936,7 +5828,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="39" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B205" s="41">
         <v>204</v>
@@ -5944,7 +5836,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="39" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B206" s="41">
         <v>205</v>
@@ -5952,7 +5844,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="39" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B207" s="41">
         <v>206</v>
@@ -5960,7 +5852,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B208" s="41">
         <v>207</v>
@@ -5968,7 +5860,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="39" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B209" s="41">
         <v>208</v>
@@ -5976,7 +5868,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="39" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B210" s="41">
         <v>209</v>
@@ -5984,7 +5876,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="39" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B211" s="41">
         <v>210</v>
@@ -5992,7 +5884,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="39" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B212" s="41">
         <v>211</v>
@@ -6000,7 +5892,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="39" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B213" s="41">
         <v>212</v>
@@ -6008,7 +5900,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="39" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B214" s="41">
         <v>213</v>
@@ -6016,7 +5908,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="39" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B215" s="41">
         <v>214</v>
@@ -6024,7 +5916,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B216" s="41">
         <v>215</v>
@@ -6032,7 +5924,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="39" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B217" s="41">
         <v>216</v>
@@ -6040,7 +5932,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="39" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B218" s="41">
         <v>217</v>
@@ -6048,7 +5940,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="39" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B219" s="41">
         <v>218</v>
@@ -6056,7 +5948,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="39" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B220" s="41">
         <v>219</v>
@@ -6064,7 +5956,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="39" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B221" s="41">
         <v>220</v>
@@ -6072,7 +5964,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="39" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B222" s="41">
         <v>221</v>
@@ -6080,7 +5972,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="39" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B223" s="41">
         <v>222</v>
@@ -6088,7 +5980,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="39" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B224" s="41">
         <v>223</v>
@@ -6096,7 +5988,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="39" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B225" s="41">
         <v>224</v>
@@ -6104,7 +5996,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="39" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B226" s="41">
         <v>225</v>
@@ -6112,7 +6004,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="39" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B227" s="41">
         <v>226</v>
@@ -6120,7 +6012,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="39" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B228" s="41">
         <v>227</v>
@@ -6128,7 +6020,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="39" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B229" s="41">
         <v>228</v>
@@ -6136,7 +6028,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="39" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B230" s="41">
         <v>229</v>
@@ -6144,7 +6036,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="39" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B231" s="41">
         <v>230</v>
@@ -6152,7 +6044,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="39" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B232" s="41">
         <v>231</v>
@@ -6160,7 +6052,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="39" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B233" s="41">
         <v>232</v>
@@ -6168,7 +6060,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="39" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B234" s="41">
         <v>233</v>
@@ -6176,7 +6068,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="39" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B235" s="41">
         <v>234</v>
@@ -6184,7 +6076,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="39" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B236" s="41">
         <v>235</v>
@@ -6192,7 +6084,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="39" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B237" s="41">
         <v>236</v>
@@ -6200,7 +6092,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="39" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B238" s="41">
         <v>237</v>
@@ -6208,7 +6100,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="39" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B239" s="41">
         <v>238</v>
@@ -6216,7 +6108,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="39" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B240" s="41">
         <v>239</v>
@@ -6224,7 +6116,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="39" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B241" s="41">
         <v>240</v>
@@ -6232,7 +6124,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="39" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B242" s="41">
         <v>241</v>
@@ -6240,7 +6132,7 @@
     </row>
     <row r="243" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A243" s="39" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B243" s="41">
         <v>242</v>
@@ -6248,7 +6140,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="39" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B244" s="41">
         <v>243</v>
@@ -6256,7 +6148,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B245" s="41">
         <v>244</v>
@@ -6264,7 +6156,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="39" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B246" s="41">
         <v>245</v>
@@ -6272,7 +6164,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="39" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B247" s="41">
         <v>246</v>
@@ -6280,7 +6172,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="39" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B248" s="41">
         <v>247</v>
@@ -6288,7 +6180,7 @@
     </row>
     <row r="249" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A249" s="39" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B249" s="41">
         <v>248</v>
@@ -6296,7 +6188,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="39" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B250" s="41">
         <v>249</v>
@@ -6304,7 +6196,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="39" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B251" s="41">
         <v>250</v>
@@ -6312,7 +6204,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="39" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B252" s="41">
         <v>251</v>
@@ -6320,7 +6212,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="39" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B253" s="41">
         <v>252</v>
@@ -6328,7 +6220,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="39" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B254" s="41">
         <v>253</v>
@@ -6336,7 +6228,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="39" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B255" s="41">
         <v>254</v>
@@ -6344,7 +6236,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="39" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B256" s="41">
         <v>255</v>
@@ -6352,7 +6244,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="39" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B257" s="41">
         <v>256</v>
@@ -6360,7 +6252,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="39" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B258" s="41">
         <v>257</v>
@@ -6368,7 +6260,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="39" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B259" s="41">
         <v>258</v>
@@ -6376,7 +6268,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="39" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B260" s="41">
         <v>259</v>
@@ -6384,7 +6276,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="39" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B261" s="41">
         <v>260</v>
@@ -6392,7 +6284,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="39" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B262" s="41">
         <v>261</v>
@@ -6400,7 +6292,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="39" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B263" s="41">
         <v>262</v>
@@ -6408,7 +6300,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="39" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B264" s="41">
         <v>263</v>
@@ -6416,7 +6308,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="39" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B265" s="41">
         <v>264</v>
@@ -6424,7 +6316,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="39" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B266" s="41">
         <v>265</v>
@@ -6432,7 +6324,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="39" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B267" s="41">
         <v>266</v>
@@ -6440,7 +6332,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="39" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B268" s="41">
         <v>267</v>
@@ -6448,7 +6340,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="39" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B269" s="41">
         <v>268</v>
@@ -6456,7 +6348,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="39" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B270" s="41">
         <v>269</v>
@@ -6464,7 +6356,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="39" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B271" s="41">
         <v>270</v>
@@ -6472,7 +6364,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="39" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B272" s="41">
         <v>271</v>
@@ -6480,7 +6372,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="39" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B273" s="41">
         <v>272</v>
@@ -6488,7 +6380,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="39" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B274" s="41">
         <v>273</v>
@@ -6496,7 +6388,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="39" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B275" s="41">
         <v>274</v>
@@ -6504,7 +6396,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B276" s="41">
         <v>275</v>
@@ -6512,7 +6404,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="39" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B277" s="41">
         <v>276</v>
@@ -6520,7 +6412,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="39" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B278" s="41">
         <v>277</v>
@@ -6528,7 +6420,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B279" s="41">
         <v>278</v>
@@ -6536,7 +6428,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="39" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B280" s="41">
         <v>279</v>
@@ -6544,7 +6436,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="39" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B281" s="41">
         <v>280</v>
@@ -6552,7 +6444,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="39" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B282" s="41">
         <v>281</v>
@@ -6560,7 +6452,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="39" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B283" s="41">
         <v>282</v>
@@ -6568,7 +6460,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="39" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B284" s="41">
         <v>283</v>
@@ -6576,7 +6468,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="39" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B285" s="41">
         <v>284</v>
@@ -6584,7 +6476,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="39" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B286" s="41">
         <v>285</v>
@@ -6592,7 +6484,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="39" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B287" s="41">
         <v>286</v>
@@ -6618,16 +6510,16 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>85</v>
@@ -6638,10 +6530,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>11</v>
@@ -6649,10 +6541,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>12</v>
@@ -6803,141 +6695,118 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:XFC9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="82" customWidth="1"/>
-    <col min="2" max="8" width="15.77734375" style="83" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="86" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="87" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="86" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="81" customWidth="1"/>
+    <col min="2" max="8" width="15.77734375" style="82" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="85" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="86" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="85" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" style="80" customWidth="1"/>
     <col min="13" max="13" width="21.109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="79" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.21875" style="79" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="79" hidden="1" customWidth="1"/>
-    <col min="17" max="16383" width="0" style="79" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="0.5546875" style="79" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="79" hidden="1"/>
+    <col min="15" max="16384" width="0.5546875" style="79" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="94" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:13" s="93" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
+        <v>641</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="92" t="s">
         <v>643</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="F1" s="92" t="s">
         <v>644</v>
       </c>
-      <c r="C1" s="93" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="93" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="93" t="s">
+      <c r="G1" s="92" t="s">
         <v>645</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="H1" s="91" t="s">
+        <v>723</v>
+      </c>
+      <c r="I1" s="91" t="s">
         <v>646</v>
       </c>
-      <c r="G1" s="93" t="s">
-        <v>647</v>
-      </c>
-      <c r="H1" s="92" t="s">
+      <c r="J1" s="91" t="s">
+        <v>724</v>
+      </c>
+      <c r="K1" s="91" t="s">
         <v>725</v>
       </c>
-      <c r="I1" s="92" t="s">
-        <v>648</v>
-      </c>
-      <c r="J1" s="92" t="s">
-        <v>726</v>
-      </c>
-      <c r="K1" s="92" t="s">
-        <v>727</v>
-      </c>
-      <c r="L1" s="93" t="s">
-        <v>642</v>
-      </c>
-      <c r="M1" s="93" t="s">
-        <v>718</v>
-      </c>
-      <c r="O1" s="95" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="82"/>
-      <c r="O2" s="81" t="e" cm="1" vm="1">
-        <f t="array" ref="O2">_xlfn._xlws.FILTER(A2:A1048576,A2:A1048576&lt;&gt;"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P2" s="81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I4" s="84"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="82"/>
-      <c r="O4" s="81"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I5" s="84"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="82"/>
-      <c r="O5" s="81"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I6" s="84"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="82"/>
-      <c r="O6" s="81"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I7" s="84"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="82"/>
-      <c r="O7" s="81"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="82"/>
-      <c r="O8" s="81"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I9" s="84"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="82"/>
-      <c r="O9" s="81"/>
+      <c r="L1" s="92" t="s">
+        <v>640</v>
+      </c>
+      <c r="M1" s="92" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I2" s="83"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="81"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="81"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="81"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="81"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I6" s="83"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="81"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="81"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" s="83"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="81"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="81"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EV0keunsGQ5/ks4YzsdUI1rjYHHHnRVPN3n7qnw7iq2bYCOPtT2h/CiBasZEVRD1r8j8ZlVUsJWnldceugowSA==" saltValue="NN2nZuJLJCzkXeFT1oXr7A==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lcxXlK7d0ord3GxcB45LglOosTNSwLKwDETHPerouI/bZAlpYqt6amc7mGcULiKvrOriVbDYYPR+983sB8+POA==" saltValue="dO3F6gU572kQLSaXed2RAw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:M9" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{6A128806-3BF2-4EDC-B261-EE4D114DB68E}">
@@ -6968,26 +6837,26 @@
   </sheetPr>
   <dimension ref="A1:AH55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="82" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="81" customWidth="1"/>
     <col min="2" max="2" width="65.5546875" style="80" customWidth="1"/>
     <col min="3" max="4" width="12.6640625" style="80" customWidth="1"/>
     <col min="5" max="5" width="23.77734375" style="80" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="80" customWidth="1"/>
     <col min="7" max="7" width="37.77734375" style="80" customWidth="1"/>
     <col min="8" max="9" width="12.6640625" style="80" customWidth="1"/>
-    <col min="10" max="15" width="15.77734375" style="83" customWidth="1"/>
+    <col min="10" max="15" width="15.77734375" style="82" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" style="80" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" style="82" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" style="81" customWidth="1"/>
     <col min="18" max="18" width="89.6640625" style="80" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.6640625" style="80" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" style="82" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" style="81" customWidth="1"/>
     <col min="21" max="21" width="19.21875" style="80" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="59.88671875" style="80" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.33203125" style="80" customWidth="1"/>
@@ -6996,389 +6865,392 @@
     <col min="26" max="26" width="12.6640625" style="80" customWidth="1"/>
     <col min="27" max="27" width="23.77734375" style="80" customWidth="1"/>
     <col min="28" max="28" width="12.6640625" style="80" customWidth="1"/>
-    <col min="29" max="34" width="15.77734375" style="83" customWidth="1"/>
+    <col min="29" max="34" width="15.77734375" style="82" customWidth="1"/>
     <col min="35" max="16384" width="8.88671875" style="79" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="94" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:34" s="93" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>736</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>659</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>658</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>726</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>727</v>
+      </c>
+      <c r="J1" s="91" t="s">
+        <v>728</v>
+      </c>
+      <c r="K1" s="92" t="s">
+        <v>656</v>
+      </c>
+      <c r="L1" s="92" t="s">
+        <v>729</v>
+      </c>
+      <c r="M1" s="92" t="s">
+        <v>655</v>
+      </c>
+      <c r="N1" s="92" t="s">
+        <v>654</v>
+      </c>
+      <c r="O1" s="92" t="s">
+        <v>730</v>
+      </c>
+      <c r="P1" s="91" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q1" s="91" t="s">
+        <v>617</v>
+      </c>
+      <c r="R1" s="92" t="s">
+        <v>731</v>
+      </c>
+      <c r="S1" s="92" t="s">
+        <v>652</v>
+      </c>
+      <c r="T1" s="92" t="s">
         <v>618</v>
       </c>
-      <c r="B1" s="92" t="s">
-        <v>719</v>
-      </c>
-      <c r="C1" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="93" t="s">
-        <v>738</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>661</v>
-      </c>
-      <c r="F1" s="92" t="s">
-        <v>660</v>
-      </c>
-      <c r="G1" s="92" t="s">
-        <v>659</v>
-      </c>
-      <c r="H1" s="92" t="s">
-        <v>728</v>
-      </c>
-      <c r="I1" s="93" t="s">
-        <v>729</v>
-      </c>
-      <c r="J1" s="92" t="s">
-        <v>730</v>
-      </c>
-      <c r="K1" s="93" t="s">
-        <v>658</v>
-      </c>
-      <c r="L1" s="93" t="s">
-        <v>731</v>
-      </c>
-      <c r="M1" s="93" t="s">
-        <v>657</v>
-      </c>
-      <c r="N1" s="93" t="s">
-        <v>656</v>
-      </c>
-      <c r="O1" s="93" t="s">
+      <c r="U1" s="91" t="s">
+        <v>651</v>
+      </c>
+      <c r="V1" s="91" t="s">
+        <v>670</v>
+      </c>
+      <c r="W1" s="92" t="s">
+        <v>650</v>
+      </c>
+      <c r="X1" s="91" t="s">
         <v>732</v>
       </c>
-      <c r="P1" s="92" t="s">
-        <v>655</v>
-      </c>
-      <c r="Q1" s="92" t="s">
+      <c r="Y1" s="92" t="s">
+        <v>649</v>
+      </c>
+      <c r="Z1" s="92" t="s">
+        <v>733</v>
+      </c>
+      <c r="AA1" s="92" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB1" s="92" t="s">
+        <v>647</v>
+      </c>
+      <c r="AC1" s="92" t="s">
+        <v>734</v>
+      </c>
+      <c r="AD1" s="92" t="s">
         <v>619</v>
       </c>
-      <c r="R1" s="93" t="s">
-        <v>733</v>
-      </c>
-      <c r="S1" s="93" t="s">
-        <v>654</v>
-      </c>
-      <c r="T1" s="93" t="s">
+      <c r="AE1" s="92" t="s">
         <v>620</v>
       </c>
-      <c r="U1" s="92" t="s">
-        <v>653</v>
-      </c>
-      <c r="V1" s="92" t="s">
-        <v>672</v>
-      </c>
-      <c r="W1" s="93" t="s">
-        <v>652</v>
-      </c>
-      <c r="X1" s="92" t="s">
-        <v>734</v>
-      </c>
-      <c r="Y1" s="93" t="s">
-        <v>651</v>
-      </c>
-      <c r="Z1" s="93" t="s">
+      <c r="AF1" s="92" t="s">
         <v>735</v>
       </c>
-      <c r="AA1" s="93" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB1" s="93" t="s">
-        <v>649</v>
-      </c>
-      <c r="AC1" s="93" t="s">
-        <v>736</v>
-      </c>
-      <c r="AD1" s="93" t="s">
+      <c r="AG1" s="92" t="s">
         <v>621</v>
       </c>
-      <c r="AE1" s="93" t="s">
+      <c r="AH1" s="92" t="s">
         <v>622</v>
       </c>
-      <c r="AF1" s="93" t="s">
-        <v>737</v>
-      </c>
-      <c r="AG1" s="93" t="s">
-        <v>623</v>
-      </c>
-      <c r="AH1" s="93" t="s">
-        <v>624</v>
-      </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="88"/>
-      <c r="T2" s="88"/>
+      <c r="B2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="87"/>
+      <c r="T2" s="87"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="88"/>
-      <c r="T3" s="88"/>
+      <c r="B3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="87"/>
+      <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="E4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="88"/>
-      <c r="T4" s="88"/>
+      <c r="E4" s="85"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="87"/>
+      <c r="T4" s="87"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="E5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="88"/>
-      <c r="T5" s="88"/>
+      <c r="E5" s="85"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="87"/>
+      <c r="T5" s="87"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="88"/>
-      <c r="T6" s="88"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="87"/>
+      <c r="T6" s="87"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="E7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="88"/>
-      <c r="T7" s="88"/>
+      <c r="E7" s="85"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="87"/>
+      <c r="T7" s="87"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="E8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="88"/>
-      <c r="T8" s="88"/>
+      <c r="E8" s="85"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="87"/>
+      <c r="T8" s="87"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="E9" s="86"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="88"/>
-      <c r="T9" s="88"/>
+      <c r="E9" s="85"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="87"/>
+      <c r="T9" s="87"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="E10" s="86"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="88"/>
-      <c r="T10" s="88"/>
+      <c r="E10" s="85"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="87"/>
+      <c r="T10" s="87"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="E11" s="86"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="88"/>
-      <c r="T11" s="88"/>
+      <c r="E11" s="85"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="87"/>
+      <c r="T11" s="87"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="E12" s="86"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="88"/>
-      <c r="T12" s="88"/>
+      <c r="E12" s="85"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="87"/>
+      <c r="T12" s="87"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="88"/>
-      <c r="T13" s="88"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="87"/>
+      <c r="T13" s="87"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="88"/>
-      <c r="T14" s="88"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="87"/>
+      <c r="T14" s="87"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="88"/>
-      <c r="T15" s="88"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="87"/>
+      <c r="T15" s="87"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="E16" s="86"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="88"/>
-      <c r="T16" s="88"/>
+      <c r="E16" s="85"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="87"/>
+      <c r="T16" s="87"/>
     </row>
     <row r="17" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="88"/>
-      <c r="T17" s="88"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="87"/>
+      <c r="T17" s="87"/>
     </row>
     <row r="18" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="88"/>
-      <c r="T18" s="88"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="87"/>
+      <c r="T18" s="87"/>
     </row>
     <row r="19" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E19" s="86"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="88"/>
-      <c r="T19" s="88"/>
+      <c r="E19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="87"/>
+      <c r="T19" s="87"/>
     </row>
     <row r="20" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E20" s="86"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="88"/>
-      <c r="T20" s="88"/>
+      <c r="E20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="87"/>
+      <c r="T20" s="87"/>
     </row>
     <row r="21" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E21" s="86"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="88"/>
-      <c r="T21" s="88"/>
+      <c r="E21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="87"/>
+      <c r="T21" s="87"/>
     </row>
     <row r="22" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E22" s="86"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="88"/>
-      <c r="T22" s="88"/>
+      <c r="E22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="87"/>
+      <c r="T22" s="87"/>
     </row>
     <row r="23" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E23" s="86"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="88"/>
-      <c r="T23" s="88"/>
+      <c r="E23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="87"/>
+      <c r="T23" s="87"/>
     </row>
     <row r="24" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E24" s="86"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="88"/>
-      <c r="T24" s="88"/>
+      <c r="E24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="87"/>
+      <c r="T24" s="87"/>
     </row>
     <row r="25" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E25" s="86"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="88"/>
-      <c r="T25" s="88"/>
+      <c r="E25" s="85"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="87"/>
+      <c r="T25" s="87"/>
     </row>
     <row r="26" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E26" s="86"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="88"/>
-      <c r="T26" s="88"/>
+      <c r="E26" s="85"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="87"/>
+      <c r="T26" s="87"/>
     </row>
     <row r="27" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E27" s="86"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="88"/>
-      <c r="T27" s="88"/>
+      <c r="E27" s="85"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="87"/>
+      <c r="T27" s="87"/>
     </row>
     <row r="28" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E28" s="86"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="88"/>
-      <c r="T28" s="88"/>
+      <c r="E28" s="85"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="87"/>
+      <c r="T28" s="87"/>
     </row>
     <row r="29" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E29" s="86"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="88"/>
-      <c r="T29" s="88"/>
+      <c r="E29" s="85"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="87"/>
+      <c r="T29" s="87"/>
     </row>
     <row r="30" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="E30" s="86"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="88"/>
-      <c r="T30" s="88"/>
+      <c r="E30" s="85"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="87"/>
+      <c r="T30" s="87"/>
     </row>
     <row r="31" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="88"/>
-      <c r="T31" s="88"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="87"/>
+      <c r="T31" s="87"/>
     </row>
     <row r="32" spans="5:20" x14ac:dyDescent="0.3">
-      <c r="T32" s="88"/>
+      <c r="T32" s="87"/>
     </row>
     <row r="33" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T33" s="88"/>
+      <c r="T33" s="87"/>
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="90"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="89"/>
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="90"/>
-      <c r="M54" s="90"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="89"/>
+      <c r="M54" s="89"/>
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="K55" s="90"/>
-      <c r="L55" s="90"/>
-      <c r="M55" s="90"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="88"/>
+      <c r="K55" s="89"/>
+      <c r="L55" s="89"/>
+      <c r="M55" s="89"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7ayo7o5EcQ5OJWeIlCPirOzyoowTscIBx+iDvad87HzZzg2m/XxlrCQ9Zg5QWY7Bb1lJhhwt/surucA/PBa7EA==" saltValue="WfZpx7jile9+QjO5Qke5Aw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fLK31neq/Zjj1gMjiG5QkFbKoyh2PLV8ARfq1MffC3e6Ih6URp83LIUL39+L9PS5TkVewLtREOM6Jrdv/Clm2A==" saltValue="330lo+/OM/U8kpH54th2HQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:AH55" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{2188F543-5F36-4D2C-BC45-2EEFBFA360AB}">
       <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{ACEE2384-0692-4E3B-9392-39D370BF135A}">
+      <formula1>Running_Serial_No___701</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7C48A9A-CA7D-41B4-B250-A4E786D18F46}">
           <x14:formula1>
             <xm:f>'Deductee Code'!$A$3:$A$12</xm:f>
@@ -7396,12 +7268,6 @@
             <xm:f>Country!$A$3:$A$287</xm:f>
           </x14:formula1>
           <xm:sqref>X2:X1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACEE2384-0692-4E3B-9392-39D370BF135A}">
-          <x14:formula1>
-            <xm:f>_xlfn.ANCHORARRAY('Challan Details'!$O$2)</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FCF1948A-2EEC-4F88-BF44-8D4D596722A4}">
           <x14:formula1>
@@ -7451,7 +7317,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>81</v>
@@ -7605,7 +7471,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="16" t="s">
@@ -7618,7 +7484,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7722,7 +7588,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
@@ -7766,7 +7632,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
@@ -7810,7 +7676,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="27.6" hidden="1" x14ac:dyDescent="0.3">
@@ -7839,7 +7705,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D20" s="17">
         <v>712</v>
@@ -7854,7 +7720,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7940,7 +7806,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="55.2" x14ac:dyDescent="0.3">
@@ -7964,7 +7830,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="55.2" x14ac:dyDescent="0.3">
@@ -7988,7 +7854,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="55.2" x14ac:dyDescent="0.3">
@@ -8012,7 +7878,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="55.2" x14ac:dyDescent="0.3">
@@ -8036,7 +7902,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="165.6" x14ac:dyDescent="0.3">
@@ -8045,7 +7911,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D29" s="16">
         <v>708</v>
@@ -8089,7 +7955,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="15" t="s">
@@ -8102,7 +7968,7 @@
         <v>14</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8177,7 +8043,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="15" t="s">
@@ -8280,7 +8146,7 @@
         <v>16</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8350,7 +8216,7 @@
         <v>16</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
@@ -8358,7 +8224,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="15" t="s">
@@ -8415,7 +8281,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>81</v>
@@ -8569,7 +8435,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D9" s="57"/>
       <c r="E9" s="15" t="s">
@@ -8589,7 +8455,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D10" s="59">
         <v>716</v>
@@ -8598,13 +8464,13 @@
         <v>23</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G10" s="61" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="59" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -8613,7 +8479,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D11" s="57"/>
       <c r="E11" s="15" t="s">
@@ -8635,7 +8501,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D12" s="16">
         <v>717</v>
@@ -8650,7 +8516,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -8659,7 +8525,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D13" s="57"/>
       <c r="E13" s="15" t="s">
@@ -8696,7 +8562,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -8705,7 +8571,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D15" s="16">
         <v>718</v>
@@ -8720,7 +8586,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
@@ -8729,7 +8595,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D16" s="16">
         <v>722</v>
@@ -8744,7 +8610,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
@@ -8753,7 +8619,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D17" s="16">
         <v>723</v>
@@ -8768,7 +8634,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
@@ -8792,7 +8658,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="55.2" x14ac:dyDescent="0.3">
@@ -8801,7 +8667,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D19" s="16">
         <v>725</v>
@@ -8816,7 +8682,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="41.4" x14ac:dyDescent="0.3">
@@ -8825,7 +8691,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="15" t="s">
@@ -8862,7 +8728,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
@@ -8930,7 +8796,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -8939,7 +8805,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D25" s="17">
         <v>720</v>
@@ -8954,7 +8820,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="82.8" x14ac:dyDescent="0.3">
@@ -8963,7 +8829,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D26" s="17">
         <v>727</v>
@@ -8987,7 +8853,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="15" t="s">
@@ -9009,7 +8875,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D28" s="17">
         <v>728</v>
@@ -9024,7 +8890,7 @@
         <v>14</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -9033,7 +8899,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="22" t="s">
@@ -9046,7 +8912,7 @@
         <v>16</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="55.2" x14ac:dyDescent="0.3">
@@ -9055,7 +8921,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
@@ -9068,7 +8934,7 @@
         <v>16</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
@@ -9099,7 +8965,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D32" s="16">
         <v>729</v>
@@ -9170,7 +9036,7 @@
         <v>107</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>34</v>
@@ -9182,7 +9048,7 @@
         <v>16</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="55.2" x14ac:dyDescent="0.3">
@@ -9205,7 +9071,7 @@
         <v>16</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
@@ -9213,7 +9079,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D37" s="16">
         <v>731</v>
@@ -9228,7 +9094,7 @@
         <v>16</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="55.2" x14ac:dyDescent="0.3">
@@ -9236,7 +9102,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D38" s="16">
         <v>732</v>
@@ -9251,7 +9117,7 @@
         <v>14</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="55.2" x14ac:dyDescent="0.3">
@@ -9259,7 +9125,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D39" s="16">
         <v>733</v>
@@ -9274,7 +9140,7 @@
         <v>16</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="55.2" x14ac:dyDescent="0.3">
@@ -9282,7 +9148,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D40" s="16">
         <v>734</v>
@@ -9297,7 +9163,7 @@
         <v>16</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="262.2" x14ac:dyDescent="0.3">
@@ -9305,7 +9171,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D41" s="16">
         <v>735</v>
@@ -9320,7 +9186,7 @@
         <v>16</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="193.2" x14ac:dyDescent="0.3">
@@ -9328,7 +9194,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D42" s="16">
         <v>736</v>
@@ -9343,7 +9209,7 @@
         <v>16</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="193.2" x14ac:dyDescent="0.3">
@@ -9351,7 +9217,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D43" s="16">
         <v>737</v>
@@ -9366,7 +9232,7 @@
         <v>16</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="262.2" x14ac:dyDescent="0.3">
@@ -9374,7 +9240,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D44" s="16">
         <v>738</v>
@@ -9389,7 +9255,7 @@
         <v>16</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="55.2" x14ac:dyDescent="0.3">
@@ -9397,10 +9263,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>59</v>
@@ -9420,10 +9286,10 @@
         <v>44</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>59</v>
@@ -9435,7 +9301,7 @@
         <v>16</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="55.2" x14ac:dyDescent="0.3">
@@ -9443,10 +9309,10 @@
         <v>45</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>59</v>
@@ -9466,10 +9332,10 @@
         <v>46</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>59</v>
@@ -9481,7 +9347,7 @@
         <v>16</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="69" x14ac:dyDescent="0.3">
@@ -9492,7 +9358,7 @@
         <v>111</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>59</v>
@@ -9504,7 +9370,7 @@
         <v>16</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="69" x14ac:dyDescent="0.3">
@@ -9512,10 +9378,10 @@
         <v>48</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>59</v>
@@ -9527,7 +9393,7 @@
         <v>16</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
@@ -9535,10 +9401,10 @@
         <v>49</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>26</v>
@@ -9550,7 +9416,7 @@
         <v>14</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
@@ -9682,7 +9548,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>84</v>
@@ -9691,7 +9557,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>85</v>
@@ -9702,7 +9568,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>87</v>
@@ -9713,7 +9579,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>88</v>
@@ -9724,10 +9590,10 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C6" s="25">
         <v>100</v>
@@ -9755,27 +9621,27 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="66" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="70" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B3" s="31">
         <v>195</v>
@@ -9786,310 +9652,310 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A8" s="70" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="70" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="69" x14ac:dyDescent="0.3">
       <c r="A10" s="70" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A11" s="70" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="70" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="70" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="70" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="70" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16" s="70" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A17" s="70" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18" s="70" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="70" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="70" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="70" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A23" s="73" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A24" s="70" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A25" s="71" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="70" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="69" x14ac:dyDescent="0.3">
       <c r="A27" s="71" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A28" s="70" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A29" s="71" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A30" s="71" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
-        <v>745</v>
-      </c>
-      <c r="B31" s="91" t="s">
-        <v>739</v>
+        <v>743</v>
+      </c>
+      <c r="B31" s="90" t="s">
+        <v>737</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -10106,16 +9972,16 @@
     </row>
     <row r="35" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A35" s="70" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D35" s="72" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -10162,23 +10028,23 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="64" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>86</v>
@@ -10186,10 +10052,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>13</v>
@@ -10200,10 +10066,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C4" s="51" t="s">
         <v>17</v>
@@ -10214,125 +10080,125 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="65" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C6" s="51" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="65" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="65" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="65" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B12" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" s="52" t="s">
         <v>543</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>544</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="54" t="s">
+        <v>544</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>545</v>
+      </c>
+      <c r="D13" s="56" t="s">
         <v>546</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>547</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -10358,7 +10224,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>119</v>
@@ -10367,7 +10233,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="64" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>85</v>
@@ -10378,10 +10244,10 @@
     </row>
     <row r="3" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="68" t="s">
-        <v>713</v>
-      </c>
-      <c r="B3" s="91" t="s">
-        <v>741</v>
+        <v>711</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>739</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>11</v>
@@ -10389,10 +10255,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>12</v>
@@ -10400,10 +10266,10 @@
     </row>
     <row r="5" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A5" s="68" t="s">
-        <v>663</v>
-      </c>
-      <c r="B5" s="91" t="s">
-        <v>742</v>
+        <v>661</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>740</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>13</v>
@@ -10411,10 +10277,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="68" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>18</v>
@@ -10422,10 +10288,10 @@
     </row>
     <row r="7" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="68" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>15</v>
@@ -10433,10 +10299,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="68" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>16</v>
@@ -10444,10 +10310,10 @@
     </row>
     <row r="9" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="68" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>17</v>
@@ -10455,10 +10321,10 @@
     </row>
     <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="68" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>14</v>
@@ -10466,54 +10332,54 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="68" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="69" x14ac:dyDescent="0.3">
       <c r="A12" s="68" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="68" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="69" x14ac:dyDescent="0.3">
       <c r="A14" s="68" t="s">
-        <v>665</v>
-      </c>
-      <c r="B14" s="91" t="s">
-        <v>743</v>
+        <v>663</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>741</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A15" s="68" t="s">
-        <v>664</v>
-      </c>
-      <c r="B15" s="91" t="s">
-        <v>744</v>
+        <v>662</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>742</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>19</v>

--- a/static/pdf/27Q_Excel_Template.xlsx
+++ b/static/pdf/27Q_Excel_Template.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neeraj Project\TDS excel template\FINAL TEMPLATES FOR SOFTWARE\Blank for Software-220925\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FFDF08-0B7E-4892-9CC7-BD72613D1272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="7g/husnDN2FX83frQERr2TG8t50457Bq7wnpMbYxYWt9XGcmdkO/g60D/bFaYRUj/L38NR+nvHUgGQIcqGJ4HA==" workbookSaltValue="gNrZl5zxZpRlwtvLwh8pOA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B12335D-C41D-4F03-959D-A8F3E3857ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="DLm63b/HcY+zIQH2oP2ugO6R0h6eZ/3IN1+ndWH0b2Z9ywLgboR2Jrdj6mY3VnPFUrI/iCgZOU+qH93XXr/teQ==" workbookSaltValue="k7JE0K/EvOEbAXOFgZu+6w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="787" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company Details" sheetId="8" r:id="rId1"/>
@@ -6697,7 +6697,7 @@
   </sheetPr>
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
@@ -6712,7 +6712,7 @@
     <col min="11" max="11" width="12.6640625" style="85" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" style="80" customWidth="1"/>
     <col min="13" max="13" width="21.109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="79" hidden="1"/>
+    <col min="14" max="14" width="8.88671875" style="79" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="0.5546875" style="79" hidden="1"/>
   </cols>
   <sheetData>
@@ -6837,9 +6837,9 @@
   </sheetPr>
   <dimension ref="A1:AH55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7236,7 +7236,7 @@
       <c r="M55" s="89"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fLK31neq/Zjj1gMjiG5QkFbKoyh2PLV8ARfq1MffC3e6Ih6URp83LIUL39+L9PS5TkVewLtREOM6Jrdv/Clm2A==" saltValue="330lo+/OM/U8kpH54th2HQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pb+E8gwcjfpqTBhKn2mYCcVdqxLyBUuUW+ynBuVwbtiFpqPPK4QqCPeRWmeIbAApVc9pU69XrQlbqAq9RzRCkA==" saltValue="qP46YJ4Ax6zdy+yh9OWhJw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:AH55" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{2188F543-5F36-4D2C-BC45-2EEFBFA360AB}">
@@ -7283,7 +7283,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{549FD713-95F1-4D27-BDD8-5009328CE47A}">
           <x14:formula1>
-            <xm:f>Section!$A$4:$A$31</xm:f>
+            <xm:f>Section!$A$3:$A$31</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -9608,7 +9608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
